--- a/public/xlsxTemplate/农林牧渔业分类总产值模板.xlsx
+++ b/public/xlsxTemplate/农林牧渔业分类总产值模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\毕设\wadv-backstage\public\xlsxTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F04B1E2-9C42-4CCE-8ABA-A6E47AC4911C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF025730-8EDF-4F0A-B4F2-18E6F0E92943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,27 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>年份</t>
   </si>
   <si>
-    <t>农林牧渔业总计</t>
-  </si>
-  <si>
-    <t>农业</t>
-  </si>
-  <si>
-    <t>渔业</t>
-  </si>
-  <si>
-    <t>林业</t>
-  </si>
-  <si>
-    <t>牧业</t>
-  </si>
-  <si>
-    <t>农林牧渔服务业</t>
+    <t>农业产值</t>
+  </si>
+  <si>
+    <t>谷物</t>
+  </si>
+  <si>
+    <t>豆类</t>
+  </si>
+  <si>
+    <t>棉花</t>
+  </si>
+  <si>
+    <t>油料</t>
+  </si>
+  <si>
+    <t>麻类</t>
+  </si>
+  <si>
+    <t>糖料</t>
+  </si>
+  <si>
+    <t>烟草</t>
+  </si>
+  <si>
+    <t>药材</t>
+  </si>
+  <si>
+    <t>薯类</t>
+  </si>
+  <si>
+    <t>蔬菜和菌子</t>
+  </si>
+  <si>
+    <t>茶桑果</t>
+  </si>
+  <si>
+    <t>花卉园艺</t>
+  </si>
+  <si>
+    <t>其他作物</t>
+  </si>
+  <si>
+    <t>采集野生植物</t>
+  </si>
+  <si>
+    <t>林业产值</t>
+  </si>
+  <si>
+    <t>牧业产值</t>
+  </si>
+  <si>
+    <t>渔业产值</t>
+  </si>
+  <si>
+    <t>服务业产值</t>
   </si>
 </sst>
 </file>
@@ -433,24 +472,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.8984375" customWidth="1"/>
-    <col min="2" max="2" width="18.296875" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="10.69921875" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" customWidth="1"/>
+    <col min="12" max="12" width="12.796875" customWidth="1"/>
+    <col min="16" max="16" width="14.8984375" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="18" max="18" width="11.09765625" customWidth="1"/>
+    <col min="19" max="19" width="12.19921875" customWidth="1"/>
+    <col min="20" max="20" width="13.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -472,41 +511,58 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.6" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.6" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:20" ht="15.6" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:20" ht="15.6" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:20" ht="15.6" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:20" ht="15.6" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:20" ht="15.6" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:G1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:T1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>